--- a/biology/Botanique/Pataca_de_Galicia/Pataca_de_Galicia.xlsx
+++ b/biology/Botanique/Pataca_de_Galicia/Pataca_de_Galicia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Pataca de Galicia (galicien) ou Patata de Galicia (espagnol) (pommes de terre de Galice) est une indication géographique protégée (IGP) qui s'applique à une production de pommes de terre de la région de Galice. (Espagne). Cette production très ancienne (la culture de la pomme de terre est attestée en Galice dès 1607), a été enregistrée comme IGP au niveau national le 24 avril 2002[1] et au niveau européen le 15 février 2007[2].
-La gestion de cette appellation a été confiée à un organisme officiel, le Consejo Regulador de la IGP Pataca de Galicia, dont le siège se situe à Xinzo de Limia (Orense)[3].
+Pataca de Galicia (galicien) ou Patata de Galicia (espagnol) (pommes de terre de Galice) est une indication géographique protégée (IGP) qui s'applique à une production de pommes de terre de la région de Galice. (Espagne). Cette production très ancienne (la culture de la pomme de terre est attestée en Galice dès 1607), a été enregistrée comme IGP au niveau national le 24 avril 2002 et au niveau européen le 15 février 2007.
+La gestion de cette appellation a été confiée à un organisme officiel, le Consejo Regulador de la IGP Pataca de Galicia, dont le siège se situe à Xinzo de Limia (Orense).
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Conditions à respecter</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La seule variété autorisée est la « Kennebec », variété d'origine américaine qui malgré son faible rendement est appréciée sur le marché.
 La zone de production couvre de 1 500 à 1 800 hectares. Elle est limitée à une aire géographique qui s'étend dans les comarques de Bergantiños, Terra Chá , A Mariña Central, A Mariña Oriental Terra de Lemos et A Limia, qui est précisée plus loin.
 Les tubercules doivent avoir un calibre compris entre 40 et 80 mm (100 mm dans les cas exceptionnels définis par un « manuel de qualité »).
-Le rendement est plafonné à 22 t/ha pour les cultures non irriguées et à 35 t/ha pour les cultures irriguées[4].
-Les opérations de tri et de conditionnement doivent avoir lieu dans la zone de production[5].
+Le rendement est plafonné à 22 t/ha pour les cultures non irriguées et à 35 t/ha pour les cultures irriguées.
+Les opérations de tri et de conditionnement doivent avoir lieu dans la zone de production.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Aire géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone de production de la Pataca de Galicia comprend les quatre sous-zones suivantes de la communauté autonome de Galice :
 comarque de Bergantiños (province de La Corogne) : communes de Carballo, Coristanco, Laracha, Malpica et Ponteceso ;
@@ -556,8 +572,8 @@
 comarque de Terra de Lemos (province de Lugo) : communes de Monforte, Pantón et O Saviñao ;
 comarque d'A Limia (province d'Orense) :
 en totalité, communes de Baltar, Os Blancos, Calvos de Randín, Porqueira, Rairiz de Veiga, Sandiás, Sarreaus, Trasmiras, Vilar de Santos et Xinzo de Limia ;
-en partie, communes d'Allariz (districts de Coedo et Torneiros), de Cualedro (districts d'Atas, Cualedro, Lucenza, Vilela et A Xironda), de Vilar de Barrio (districts de Bóveda, Padreda, Seiró et Vilar de Barrio) et de Xunqueira de Ambía (districts d'A Abeleda, Bobadela a Pinta, A Graña et Sobradelo)[4].
-Cette zone devrait être étendue à la comarque de Verín dans la province d'Orense (communes de Verín, Monterrei, Castrelo do Val, Laza et Oímbra)[6].
+en partie, communes d'Allariz (districts de Coedo et Torneiros), de Cualedro (districts d'Atas, Cualedro, Lucenza, Vilela et A Xironda), de Vilar de Barrio (districts de Bóveda, Padreda, Seiró et Vilar de Barrio) et de Xunqueira de Ambía (districts d'A Abeleda, Bobadela a Pinta, A Graña et Sobradelo).
+Cette zone devrait être étendue à la comarque de Verín dans la province d'Orense (communes de Verín, Monterrei, Castrelo do Val, Laza et Oímbra).
 </t>
         </is>
       </c>
@@ -586,9 +602,11 @@
           <t>Fêtes et traditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaque année depuis 1980, le troisième dimanche de septembre, une fête de la pomme de terre, la A festa da pataca, a lieu  à Coristanco pour célébrer le début de la campagne de récolte. Cette fête organisée à l'origine par l'ex-Cooperativa de la Patata de Bergantiños (Copaber) pour assurer la promotion de cette pomme de terre, comprend diverses manifestations : dégustations de plats comprenant de la pomme de terre, concours gastronomique, exposition de figures construites avec des pommes de terre, jeux divers, etc.[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque année depuis 1980, le troisième dimanche de septembre, une fête de la pomme de terre, la A festa da pataca, a lieu  à Coristanco pour célébrer le début de la campagne de récolte. Cette fête organisée à l'origine par l'ex-Cooperativa de la Patata de Bergantiños (Copaber) pour assurer la promotion de cette pomme de terre, comprend diverses manifestations : dégustations de plats comprenant de la pomme de terre, concours gastronomique, exposition de figures construites avec des pommes de terre, jeux divers, etc..
 </t>
         </is>
       </c>
